--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/3 ANALISIS/1 Evaluación del Riesgo a Cumplimiento.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/3 ANALISIS/1 Evaluación del Riesgo a Cumplimiento.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\3 ANALISIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\3 ANALISIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57BE4F2-54A3-4DC0-B94A-D0407D9AABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D24C1D01-1F07-4F2F-805F-A739E97E19F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Revisó:</t>
   </si>
   <si>
-    <t xml:space="preserve">                    Entidad XXXXXXX</t>
-  </si>
-  <si>
     <t xml:space="preserve">                 Evaluación del Riesgo a Cumplimiento a Leyes, Reglamentos, Normas y Manuales</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Del 01 de Enero al 31 de Diciembre de 2023</t>
   </si>
   <si>
-    <t xml:space="preserve">     Auditoría de Estados Financieros</t>
-  </si>
-  <si>
     <t>Ejemplos:   Se deben elaborar una serie de preguntas a manera de evaluar el cumplimiento según la Ley que aplica.                                                                                        1. Cumple con los plazos de entrega de información. 2. Cumple con publicar la información</t>
   </si>
   <si>
@@ -175,6 +169,12 @@
   </si>
   <si>
     <t>Logo</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Auditoría de Estados Financieros</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -521,6 +521,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,10 +534,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,7 +1211,7 @@
   <dimension ref="B2:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,11 +1227,11 @@
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="H2" s="39" t="s">
-        <v>37</v>
+      <c r="H2" s="36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.25">
@@ -1261,8 +1264,8 @@
     </row>
     <row r="7" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="13"/>
-      <c r="D7" s="18" t="s">
-        <v>10</v>
+      <c r="D7" s="41" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="14"/>
@@ -1277,8 +1280,8 @@
     </row>
     <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
-        <v>34</v>
+      <c r="D8" s="41" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
@@ -1290,8 +1293,8 @@
     </row>
     <row r="9" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C9" s="13"/>
-      <c r="D9" s="14" t="s">
-        <v>33</v>
+      <c r="D9" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -1304,7 +1307,7 @@
     <row r="10" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
@@ -1313,38 +1316,38 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
-      <c r="C14" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
+      <c r="C14" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="25"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
-        <v>17</v>
+      <c r="B15" s="39" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="23">
         <v>0</v>
@@ -1353,17 +1356,17 @@
         <v>0.1</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="23">
         <v>0.1</v>
       </c>
@@ -1371,31 +1374,31 @@
         <v>0.2</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="23">
         <v>0.2</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:7" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1409,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>6</v>
@@ -1423,10 +1426,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E20" s="33">
         <v>8</v>
@@ -1542,43 +1545,43 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="30"/>
       <c r="E47" s="30"/>
       <c r="F47" s="29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G47" s="19"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="28"/>
       <c r="F48" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" s="28"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C49" s="19"/>
       <c r="F49" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G49" s="19"/>
     </row>
